--- a/item.xlsx
+++ b/item.xlsx
@@ -2,122 +2,615 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Project\DB Basic\DB project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Project\DB Basic\Darnassus_Usher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="item" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>질긴 육포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24b</t>
   </si>
   <si>
     <t>양고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4s 75b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>허벅지고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s 19b</t>
   </si>
   <si>
     <t>멧되지 통구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1s 19b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9s 50b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그웬 암스테드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사라지는 가루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>34s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사라짐의 가루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>38s 25b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맑은 정신의 마법서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>42s 50b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키로엔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키로엔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키로엔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수수한 로브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s 44b</t>
   </si>
   <si>
     <t>이중 박음질한 로브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9s 5b</t>
   </si>
   <si>
     <t>수습공의 로브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17s 29b</t>
+  </si>
+  <si>
+    <t>흐린빛 비단 로브</t>
+  </si>
+  <si>
+    <t>39s 57b</t>
+  </si>
+  <si>
+    <t>단단한 지팡이</t>
+  </si>
+  <si>
+    <t>2g 49s 53b</t>
+  </si>
+  <si>
+    <t>전투 지팡이</t>
+  </si>
+  <si>
+    <t>5g 23s 25b</t>
+  </si>
+  <si>
+    <t>갈라진 가죽 조끼</t>
+  </si>
+  <si>
+    <t>73b</t>
+  </si>
+  <si>
+    <t>갈라진 가죽 허리띠</t>
+  </si>
+  <si>
+    <t>40b</t>
+  </si>
+  <si>
+    <t>갈라진 가죽 바지</t>
+  </si>
+  <si>
+    <t>72b</t>
+  </si>
+  <si>
+    <t>갈라진 가죽 장화</t>
+  </si>
+  <si>
+    <t>59b</t>
+  </si>
+  <si>
+    <t>갈라진 가죽 팔보호구</t>
+  </si>
+  <si>
+    <t>갈라진 가죽 장갑</t>
+  </si>
+  <si>
+    <t>빛바랜 사슬 조끼</t>
+  </si>
+  <si>
+    <t>76b</t>
+  </si>
+  <si>
+    <t>빛바랜 사슬 다리 보호구</t>
+  </si>
+  <si>
+    <t>77b</t>
+  </si>
+  <si>
+    <t>빛바래 사슬 허리띠</t>
+  </si>
+  <si>
+    <t>39b</t>
+  </si>
+  <si>
+    <t>소형 방패</t>
+  </si>
+  <si>
+    <t>31b</t>
+  </si>
+  <si>
+    <t>대형 원형 방패</t>
+  </si>
+  <si>
+    <t>67b</t>
+  </si>
+  <si>
+    <t>소형 타지 방패</t>
+  </si>
+  <si>
+    <t>2s 22b</t>
+  </si>
+  <si>
+    <t>무딘 히터실드</t>
+  </si>
+  <si>
+    <t>4s 3b</t>
+  </si>
+  <si>
+    <t>얇은 헝겊 방어구</t>
+  </si>
+  <si>
+    <t>얇은 헝겊 허리띠</t>
+  </si>
+  <si>
+    <t>37b</t>
+  </si>
+  <si>
+    <t>얇은 헝겊 바지</t>
+  </si>
+  <si>
+    <t>얇은 헝겊 신발</t>
+  </si>
+  <si>
+    <t>57b</t>
+  </si>
+  <si>
+    <t>플랑 베르쥬</t>
+  </si>
+  <si>
+    <t>2g 62s 62b</t>
+  </si>
+  <si>
+    <t>쯔바이 헨더</t>
+  </si>
+  <si>
+    <t>5g 52s 78b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불로바 </t>
+  </si>
+  <si>
+    <t>2g 40s 44b</t>
+  </si>
+  <si>
+    <t>거대도끼</t>
+  </si>
+  <si>
+    <t>4g 77s 46b</t>
+  </si>
+  <si>
+    <t>강화된 활</t>
+  </si>
+  <si>
+    <t>32s 41b</t>
+  </si>
+  <si>
+    <t>강화 곡국</t>
+  </si>
+  <si>
+    <t>53s 97b</t>
+  </si>
+  <si>
+    <t>고급 단궁</t>
+  </si>
+  <si>
+    <t>27s 8b</t>
+  </si>
+  <si>
+    <t>두꺼운 날 나이프</t>
+  </si>
+  <si>
+    <t>2g 41s 18b</t>
+  </si>
+  <si>
+    <t>장착용 손도끼</t>
+  </si>
+  <si>
+    <t>20s 48b</t>
+  </si>
+  <si>
+    <t>가로날 도끼</t>
+  </si>
+  <si>
+    <t>37s 57b</t>
+  </si>
+  <si>
+    <t>이중 도끼</t>
+  </si>
+  <si>
+    <t>59s 11b</t>
+  </si>
+  <si>
+    <t>철퇴</t>
+  </si>
+  <si>
+    <t>14s 79b</t>
+  </si>
+  <si>
+    <t>거대한 철퇴</t>
+  </si>
+  <si>
+    <t>22s 67b</t>
+  </si>
+  <si>
+    <t>망치</t>
+  </si>
+  <si>
+    <t>25s 69b</t>
+  </si>
+  <si>
+    <t>커틀라스</t>
+  </si>
+  <si>
+    <t>17s 20b</t>
+  </si>
+  <si>
+    <t>클레이모어</t>
+  </si>
+  <si>
+    <t>22s 76b</t>
+  </si>
+  <si>
+    <t>잠비야</t>
+  </si>
+  <si>
+    <t>20s 33b</t>
+  </si>
+  <si>
+    <t>시미터</t>
+  </si>
+  <si>
+    <t>32s 44b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소트소드 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46b </t>
+  </si>
+  <si>
+    <t>바스타드 소드</t>
+  </si>
+  <si>
+    <t>90b</t>
+  </si>
+  <si>
+    <t>손도끼</t>
+  </si>
+  <si>
+    <t>71b</t>
+  </si>
+  <si>
+    <t>맑은 샘물</t>
+  </si>
+  <si>
+    <t>22b</t>
+  </si>
+  <si>
+    <t>질긴 빵</t>
+  </si>
+  <si>
+    <t>작은 갈색 가방</t>
+  </si>
+  <si>
+    <t>4s 25b</t>
+  </si>
+  <si>
+    <t>큰 갈색 자루</t>
+  </si>
+  <si>
+    <t>커다란 갈색 부대</t>
+  </si>
+  <si>
+    <t>21s 25b</t>
+  </si>
+  <si>
+    <t>두꺼운 가죽 꾸러미</t>
+  </si>
+  <si>
+    <t>1g 70s</t>
+  </si>
+  <si>
+    <t>길드 휘장</t>
+  </si>
+  <si>
+    <t>85s</t>
+  </si>
+  <si>
+    <t>알도르 휘장</t>
+  </si>
+  <si>
+    <t>세나리온 원정대 휘장</t>
+  </si>
+  <si>
+    <t>굵은 실타래</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>가는 실타래</t>
+  </si>
+  <si>
+    <t>85b</t>
+  </si>
+  <si>
+    <t>룬 실타래</t>
+  </si>
+  <si>
+    <t>무두질용 손칼</t>
+  </si>
+  <si>
+    <t>70b</t>
+  </si>
+  <si>
+    <t>소금</t>
+  </si>
+  <si>
+    <t>43b</t>
+  </si>
+  <si>
+    <t>이터늄 실타래</t>
+  </si>
+  <si>
+    <t>2g 55s</t>
+  </si>
+  <si>
+    <t>주문식: 마법등불</t>
+  </si>
+  <si>
+    <t>최면가루 x 20</t>
+  </si>
+  <si>
+    <t>주문식: 장화 마법 부여</t>
+  </si>
+  <si>
+    <t>천상의 결정 x 5</t>
+  </si>
+  <si>
+    <t>보석 세공 도구</t>
+  </si>
+  <si>
+    <t>6s 80b</t>
+  </si>
+  <si>
+    <t>보석세공인의 장식</t>
+  </si>
+  <si>
+    <t>1g 27s 50b</t>
+  </si>
+  <si>
+    <t>채광용 곡괭이</t>
+  </si>
+  <si>
+    <t>채광용 자루</t>
+  </si>
+  <si>
+    <t>9g 50s</t>
+  </si>
+  <si>
+    <t>약한 융해 촉진제</t>
+  </si>
+  <si>
+    <t>95b</t>
+  </si>
+  <si>
+    <t>반짝거리는 맞물림 톱니</t>
+  </si>
+  <si>
+    <t>검증된 기계공학 영재고글</t>
+  </si>
+  <si>
+    <t>강도높은 맞물림 톱니</t>
+  </si>
+  <si>
+    <t>엘레멘티움 연장통</t>
+  </si>
+  <si>
+    <t>맛있는 고기 상자</t>
+  </si>
+  <si>
+    <t>미식가의 상 x 2</t>
+  </si>
+  <si>
+    <t>부드러운 양념</t>
+  </si>
+  <si>
+    <t>수정 약병</t>
+  </si>
+  <si>
+    <t>조제법: 상급 분노의 물약</t>
+  </si>
+  <si>
+    <t>17s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -131,15 +624,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,9 +813,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -158,7 +1054,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -220,9 +1157,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -255,9 +1192,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -437,38 +1374,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -476,74 +1409,850 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="C5">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+      <c r="C6">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>